--- a/for_import/Users HCM PRG DNI.xlsx
+++ b/for_import/Users HCM PRG DNI.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D4\hcm\for_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB151B3-4D51-4F6E-9A4E-DD71B637340D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85329333-7C12-4F2C-8927-C55E6F36B7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="613" windowWidth="20633" windowHeight="10993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test importname" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="import" sheetId="4" r:id="rId1"/>
+    <sheet name="test importname" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="124">
   <si>
     <t>Đài HCM</t>
   </si>
@@ -393,6 +394,18 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>đài</t>
+  </si>
+  <si>
+    <t>PRG</t>
+  </si>
+  <si>
+    <t>DNI</t>
   </si>
 </sst>
 </file>
@@ -552,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,12 +611,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -889,11 +918,1125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C117E07F-AA81-4AE1-8192-67C057CBB73B}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="str">
+        <f>E2</f>
+        <v>quynhdn@vnpt.vn</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6">
+        <v>913100092</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="str">
+        <f>E2</f>
+        <v>quynhdn@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="str">
+        <f t="shared" ref="B3:B11" si="0">E3</f>
+        <v>pvchien@vnpt.vn</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6">
+        <v>916864774</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="1">E3</f>
+        <v>pvchien@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>dangkhoa@vnpt.vn</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6">
+        <v>918558898</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>dangkhoa@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>mytq@vnpt.vn</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6">
+        <v>836979999</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>mytq@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>dtphuong@vnpt.vn</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6">
+        <v>918896969</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>dtphuong@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>vanngochoa@vnpt.vn</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6">
+        <v>918175417</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>vanngochoa@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>nguyenhoangvien@vnpt.vn</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6">
+        <v>913999092</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>nguyenhoangvien@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>khangvdn@vnpt.vn</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6">
+        <v>944976869</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>khangvdn@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>hophv@vnpt.vn</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
+        <v>914734445</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>hophv@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>dositu@vnpt.vn</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
+        <v>946228224</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>dositu@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f t="shared" ref="B12:B16" si="2">E12</f>
+        <v>dhlam@vnpt.vn</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>944281153</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="str">
+        <f>E12</f>
+        <v>dhlam@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>hoanghuu@vnpt.vn</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>913599591</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13:J32" si="3">E13</f>
+        <v>hoanghuu@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>hndoan@vnpt.vn</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>918440999</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>hndoan@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>tbnghi@vnpt.vn</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>919003388</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>tbnghi@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>hvsinh@vnpt.vn</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>913181949</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>hvsinh@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18" t="str">
+        <f t="shared" ref="B17:B32" si="4">E17</f>
+        <v>thienld@vnpt.vn</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1">
+        <v>916500095</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>thienld@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>ngocnm@vnpt.vn</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>919696967</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>ngocnm@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>phamminhduc1@vnpt.vn</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>919136982</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>phamminhduc1@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>huynhtandung@vnpt.vn</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1">
+        <v>913149365</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>huynhtandung@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>quynhln@vnpt.vn</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1">
+        <v>918144456</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>quynhln@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>hhkhanh@vnpt.vn</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1">
+        <v>914397738</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>hhkhanh@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>trinhthanhtrung@vnpt.vn</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1">
+        <v>913797795</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>trinhthanhtrung@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>buicongbaokim@vnpt.vn</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>917248896</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>buicongbaokim@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>tvnhan@vnpt.vn</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1">
+        <v>919000605</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>tvnhan@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>lengocduy@vnpt.vn</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>913727777</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>lengocduy@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>nguyenconghung@vnpt.vn</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1">
+        <v>942299949</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>nguyenconghung@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>vonhatgia@vnpt.vn</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1">
+        <v>941939597</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>vonhatgia@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>vvqhung@vnpt.vn</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1">
+        <v>949060687</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>vvqhung@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>annk@vnpt.vn</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
+        <v>919273878</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>annk@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>ltoanh@vnpt.vn</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1">
+        <v>918242566</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>ltoanh@vnpt.vn</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>sybinh@vnpt.vn</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1">
+        <v>913992772</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>sybinh@vnpt.vn</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D12:E16">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204B89C6-93ED-4F4F-B118-B88088A31EA6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -945,11 +2088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1792,12 +2935,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96618A12-BF2F-46AE-8897-760033FC4DED}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
